--- a/LeadPrimeAutomation_IndiaMart/LeadPrime Dependancy Files/IDMART Names & Pwds.xlsx
+++ b/LeadPrimeAutomation_IndiaMart/LeadPrime Dependancy Files/IDMART Names & Pwds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\Eclipse Workspace\Leadprime Automation\LeadPrime Dependancy Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\Eclipse Workspace\LeadPrimeAutomation_IndiaMart\LeadPrime Dependancy Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>S.No</t>
   </si>
@@ -114,88 +114,49 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Thu May 01 01:34:38 IST 2022</t>
+    <t>Tue Jun 14 01:34:02 IST 2022</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Thu May 19 14:12:25 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:13:29 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:14:08 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:14:52 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:15:30 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:16:06 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:18:15 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:19:15 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:22:35 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:23:33 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:24:20 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:30:57 IST 2022</t>
-  </si>
-  <si>
-    <t>Thu May 19 14:31:36 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:42:18 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:43:11 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:43:49 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:44:32 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:45:11 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:45:46 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:46:51 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:47:50 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:48:47 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:49:45 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:50:32 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:53:14 IST 2022</t>
-  </si>
-  <si>
-    <t>Mon May 23 15:53:53 IST 2022</t>
+    <t>Wed Jun 15 16:06:18 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:07:05 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:07:43 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:08:27 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:09:06 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:09:42 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:10:46 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:11:45 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:12:42 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:13:40 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:14:27 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:15:27 IST 2022</t>
+  </si>
+  <si>
+    <t>Wed Jun 15 16:16:05 IST 2022</t>
   </si>
 </sst>
 </file>
@@ -678,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>29</v>
@@ -703,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>29</v>
@@ -728,7 +689,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>29</v>
@@ -753,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>29</v>
@@ -778,7 +739,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>29</v>
@@ -798,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>29</v>
@@ -818,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>29</v>
@@ -838,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>29</v>
@@ -858,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>29</v>
@@ -878,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>29</v>
@@ -898,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>29</v>
@@ -933,7 +894,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>29</v>
@@ -953,7 +914,7 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>29</v>
